--- a/Src/Data/Tables/NPCDefine.xlsx
+++ b/Src/Data/Tables/NPCDefine.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" updateLinks="always"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="28725" tabRatio="599"/>
+    <workbookView windowWidth="27945" windowHeight="29175" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="Elements" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>描述</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>装备NPC</t>
+  </si>
+  <si>
+    <t>薇薇安</t>
+  </si>
+  <si>
+    <t>坐骑NPC</t>
   </si>
 </sst>
 </file>
@@ -114,7 +120,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -304,11 +310,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -321,20 +322,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -360,7 +347,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -550,24 +537,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,31 +810,31 @@
     <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1042,9 +1011,16 @@
 </styleSheet>
 </file>
 
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:G7" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:G7" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:G8" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:G8" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Key" dataDxfId="0"/>
     <tableColumn id="3" name="ID" dataDxfId="1"/>
@@ -1348,7 +1324,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.2666666666667" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1506,9 +1482,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="14.25" spans="6:7">
-      <c r="F8" s="7"/>
-      <c r="G8" s="6"/>
+    <row r="8" s="1" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="14.25" spans="4:7">
       <c r="D9" s="7"/>
